--- a/NBA Playoffs - Machine Learning/NBAPlayoffs/18-19.xlsx
+++ b/NBA Playoffs - Machine Learning/NBAPlayoffs/18-19.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmacrides/Python and R/GitHub/Machine Learning/NbaPlayoffs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmacrides/Python and R/GitHub/NBA Playoffs - Machine Learning/NBAPlayoffs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1844D5F-63CD-844F-B9FD-D6A6FCF78561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A690E6-4346-4847-A115-E230D33595AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="1500" windowWidth="27240" windowHeight="15260" xr2:uid="{44E20745-1D37-B349-AC0C-625F4E618218}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Milwaukee Bucks</t>
   </si>
@@ -139,18 +139,9 @@
     <t>Win Percentage</t>
   </si>
   <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>PD</t>
   </si>
   <si>
-    <t>Standardized PD</t>
-  </si>
-  <si>
     <t>FG%</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>PF</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Playoff</t>
   </si>
   <si>
@@ -197,6 +185,33 @@
   </si>
   <si>
     <t>Seed</t>
+  </si>
+  <si>
+    <t>Pace</t>
+  </si>
+  <si>
+    <t>FTr</t>
+  </si>
+  <si>
+    <t>3PAr</t>
+  </si>
+  <si>
+    <t>TS%</t>
+  </si>
+  <si>
+    <t>eFG%</t>
+  </si>
+  <si>
+    <t>TOV%</t>
+  </si>
+  <si>
+    <t>ORB%</t>
+  </si>
+  <si>
+    <t>FT/FGA</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -251,14 +266,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,25 +595,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78028A3A-5D3E-0D4D-A183-5BADAA04B20B}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -632,39 +655,54 @@
       <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="2">
@@ -676,69 +714,84 @@
       <c r="E2" s="2">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F2" s="2">
-        <v>118.1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>109.3</v>
-      </c>
-      <c r="H2">
+      <c r="F2" s="4">
         <v>8.7999999999999972</v>
       </c>
-      <c r="I2">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="G2" s="5">
         <v>0.47600000000000003</v>
       </c>
+      <c r="H2" s="5">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="J2" s="6">
+        <v>49.7</v>
+      </c>
       <c r="K2" s="4">
-        <v>0.35299999999999998</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="M2" s="3">
-        <v>49.7</v>
-      </c>
-      <c r="N2">
-        <v>26</v>
-      </c>
-      <c r="O2">
         <v>7.5</v>
       </c>
-      <c r="P2">
+      <c r="M2" s="4">
         <v>5.9</v>
       </c>
-      <c r="Q2">
+      <c r="N2" s="4">
         <v>13.3</v>
       </c>
-      <c r="R2">
+      <c r="O2" s="4">
         <v>19.600000000000001</v>
       </c>
-      <c r="S2">
-        <v>18</v>
-      </c>
-      <c r="T2">
+      <c r="P2" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>103.3</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.255</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V2" s="7">
+        <v>12</v>
+      </c>
+      <c r="W2" s="7">
+        <v>20.8</v>
+      </c>
+      <c r="X2" s="7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="Y2" s="4">
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="Z2" s="4">
         <v>1</v>
       </c>
-      <c r="V2">
+      <c r="AA2" s="4">
         <v>1</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="2">
@@ -750,69 +803,84 @@
       <c r="E3" s="2">
         <v>0.70699999999999996</v>
       </c>
-      <c r="F3" s="2">
-        <v>114.4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>108.4</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="I3">
-        <v>15.6</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="G3" s="5">
         <v>0.47399999999999998</v>
       </c>
+      <c r="H3" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="J3" s="6">
+        <v>45.2</v>
+      </c>
       <c r="K3" s="4">
-        <v>0.36599999999999999</v>
+        <v>25.4</v>
       </c>
       <c r="L3" s="4">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="M3" s="3">
-        <v>45.2</v>
-      </c>
-      <c r="N3">
-        <v>25.4</v>
-      </c>
-      <c r="O3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="P3">
+      <c r="M3" s="4">
         <v>5.3</v>
       </c>
-      <c r="Q3">
+      <c r="N3" s="4">
         <v>13.3</v>
       </c>
-      <c r="R3">
+      <c r="O3" s="4">
         <v>21</v>
       </c>
-      <c r="S3">
-        <v>18</v>
-      </c>
-      <c r="T3">
+      <c r="P3" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>100.2</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.247</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.379</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="V3" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="W3" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Y3" s="4">
         <v>1</v>
       </c>
-      <c r="U3">
+      <c r="Z3" s="4">
         <v>1</v>
       </c>
-      <c r="V3">
+      <c r="AA3" s="4">
         <v>1</v>
       </c>
-      <c r="W3">
+      <c r="AB3" s="4">
         <v>1</v>
       </c>
-      <c r="X3">
+      <c r="AC3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="2">
@@ -824,69 +892,84 @@
       <c r="E4" s="2">
         <v>0.69499999999999995</v>
       </c>
-      <c r="F4" s="2">
-        <v>117.7</v>
-      </c>
-      <c r="G4" s="2">
-        <v>111.2</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="4">
         <v>6.5</v>
       </c>
-      <c r="I4">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="G4" s="5">
         <v>0.49099999999999999</v>
       </c>
+      <c r="H4" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.80099999999999993</v>
+      </c>
+      <c r="J4" s="6">
+        <v>46.2</v>
+      </c>
       <c r="K4" s="4">
-        <v>0.38500000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="L4" s="4">
-        <v>0.80099999999999993</v>
-      </c>
-      <c r="M4" s="3">
-        <v>46.2</v>
-      </c>
-      <c r="N4">
-        <v>29.4</v>
-      </c>
-      <c r="O4">
         <v>7.6</v>
       </c>
-      <c r="P4">
+      <c r="M4" s="4">
         <v>6.4</v>
       </c>
-      <c r="Q4">
+      <c r="N4" s="4">
         <v>13.8</v>
       </c>
-      <c r="R4">
+      <c r="O4" s="4">
         <v>21.4</v>
       </c>
-      <c r="S4">
-        <v>18</v>
-      </c>
-      <c r="T4">
+      <c r="P4" s="7">
+        <v>28.4</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>100.9</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="V4" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="W4" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0.182</v>
+      </c>
+      <c r="Y4" s="4">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="Z4" s="4">
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="AA4" s="4">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="AB4" s="4">
         <v>1</v>
       </c>
-      <c r="X4">
+      <c r="AC4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="2">
@@ -898,69 +981,84 @@
       <c r="E5" s="2">
         <v>0.65900000000000003</v>
       </c>
-      <c r="F5" s="2">
-        <v>110.7</v>
-      </c>
-      <c r="G5" s="2">
-        <v>106.7</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>13.6</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="G5" s="5">
         <v>0.46600000000000003</v>
       </c>
+      <c r="H5" s="5">
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.755</v>
+      </c>
+      <c r="J5" s="6">
+        <v>46.4</v>
+      </c>
       <c r="K5" s="4">
-        <v>0.35100000000000003</v>
+        <v>27.4</v>
       </c>
       <c r="L5" s="4">
-        <v>0.755</v>
-      </c>
-      <c r="M5" s="3">
-        <v>46.4</v>
-      </c>
-      <c r="N5">
-        <v>27.4</v>
-      </c>
-      <c r="O5">
         <v>7.7</v>
       </c>
-      <c r="P5">
+      <c r="M5" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q5">
+      <c r="N5" s="4">
         <v>12.9</v>
       </c>
-      <c r="R5">
+      <c r="O5" s="4">
         <v>20</v>
       </c>
-      <c r="S5">
-        <v>18</v>
-      </c>
-      <c r="T5">
+      <c r="P5" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>97.7</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="V5" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="W5" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Y5" s="4">
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="Z5" s="4">
         <v>1</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="2">
@@ -972,69 +1070,84 @@
       <c r="E6" s="2">
         <v>0.64600000000000002</v>
       </c>
-      <c r="F6" s="2">
-        <v>113.9</v>
-      </c>
-      <c r="G6" s="2">
-        <v>109.1</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="4">
         <v>4.8000000000000114</v>
       </c>
-      <c r="I6">
-        <v>14.400000000000011</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="G6" s="5">
         <v>0.44900000000000001</v>
       </c>
+      <c r="H6" s="5">
+        <v>0.35600000000000004</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.79099999999999993</v>
+      </c>
+      <c r="J6" s="6">
+        <v>42.1</v>
+      </c>
       <c r="K6" s="4">
-        <v>0.35600000000000004</v>
+        <v>21.2</v>
       </c>
       <c r="L6" s="4">
-        <v>0.79099999999999993</v>
-      </c>
-      <c r="M6" s="3">
-        <v>42.1</v>
-      </c>
-      <c r="N6">
-        <v>21.2</v>
-      </c>
-      <c r="O6">
         <v>8.5</v>
       </c>
-      <c r="P6">
+      <c r="M6" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q6">
+      <c r="N6" s="4">
         <v>12.7</v>
       </c>
-      <c r="R6">
+      <c r="O6" s="4">
         <v>22</v>
       </c>
-      <c r="S6">
-        <v>18</v>
-      </c>
-      <c r="T6">
+      <c r="P6" s="7">
+        <v>29.2</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>97.9</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="V6" s="7">
+        <v>12</v>
+      </c>
+      <c r="W6" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0.221</v>
+      </c>
+      <c r="Y6" s="4">
         <v>1</v>
       </c>
-      <c r="U6">
+      <c r="Z6" s="4">
         <v>1</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="2">
@@ -1046,69 +1159,84 @@
       <c r="E7" s="2">
         <v>0.64600000000000002</v>
       </c>
-      <c r="F7" s="2">
-        <v>114.7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>110.5</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="4">
         <v>4.2000000000000028</v>
       </c>
-      <c r="I7">
-        <v>13.800000000000002</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="G7" s="5">
         <v>0.46700000000000003</v>
       </c>
+      <c r="H7" s="5">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="J7" s="6">
+        <v>48</v>
+      </c>
       <c r="K7" s="4">
-        <v>0.35899999999999999</v>
+        <v>23</v>
       </c>
       <c r="L7" s="4">
-        <v>0.81400000000000006</v>
-      </c>
-      <c r="M7" s="3">
-        <v>48</v>
-      </c>
-      <c r="N7">
-        <v>23</v>
-      </c>
-      <c r="O7">
         <v>6.7</v>
       </c>
-      <c r="P7">
+      <c r="M7" s="4">
         <v>5</v>
       </c>
-      <c r="Q7">
+      <c r="N7" s="4">
         <v>13.3</v>
       </c>
-      <c r="R7">
+      <c r="O7" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="S7">
-        <v>18</v>
-      </c>
-      <c r="T7">
+      <c r="P7" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>99.1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="V7" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="W7" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="Y7" s="4">
         <v>1</v>
       </c>
-      <c r="U7">
+      <c r="Z7" s="4">
         <v>1</v>
       </c>
-      <c r="V7">
+      <c r="AA7" s="4">
         <v>1</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="2">
@@ -1120,69 +1248,84 @@
       <c r="E8" s="2">
         <v>0.622</v>
       </c>
-      <c r="F8" s="2">
-        <v>115.2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>112.5</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="4">
         <v>2.7000000000000028</v>
       </c>
-      <c r="I8">
-        <v>12.300000000000002</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="G8" s="5">
         <v>0.47100000000000003</v>
       </c>
+      <c r="H8" s="5">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.77099999999999991</v>
+      </c>
+      <c r="J8" s="6">
+        <v>47.8</v>
+      </c>
       <c r="K8" s="4">
-        <v>0.35899999999999999</v>
+        <v>26.9</v>
       </c>
       <c r="L8" s="4">
-        <v>0.77099999999999991</v>
-      </c>
-      <c r="M8" s="3">
-        <v>47.8</v>
-      </c>
-      <c r="N8">
-        <v>26.9</v>
-      </c>
-      <c r="O8">
         <v>7.4</v>
       </c>
-      <c r="P8">
+      <c r="M8" s="4">
         <v>5.3</v>
       </c>
-      <c r="Q8">
+      <c r="N8" s="4">
         <v>14.5</v>
       </c>
-      <c r="R8">
+      <c r="O8" s="4">
         <v>21.3</v>
       </c>
-      <c r="S8">
-        <v>18</v>
-      </c>
-      <c r="T8">
+      <c r="P8" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>101.6</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.312</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="V8" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="W8" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="Y8" s="4">
         <v>1</v>
       </c>
-      <c r="U8">
+      <c r="Z8" s="4">
         <v>1</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="2">
@@ -1194,69 +1337,84 @@
       <c r="E9" s="2">
         <v>0.61</v>
       </c>
-      <c r="F9" s="2">
-        <v>111.7</v>
-      </c>
-      <c r="G9" s="2">
-        <v>106.5</v>
-      </c>
-      <c r="H9">
+      <c r="F9" s="4">
         <v>5.2000000000000028</v>
       </c>
-      <c r="I9">
-        <v>14.800000000000002</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="G9" s="5">
         <v>0.46799999999999997</v>
       </c>
+      <c r="H9" s="5">
+        <v>0.35600000000000004</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="J9" s="6">
+        <v>46.4</v>
+      </c>
       <c r="K9" s="4">
-        <v>0.35600000000000004</v>
+        <v>26</v>
       </c>
       <c r="L9" s="4">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="M9" s="3">
-        <v>46.4</v>
-      </c>
-      <c r="N9">
-        <v>26</v>
-      </c>
-      <c r="O9">
         <v>8.1</v>
       </c>
-      <c r="P9">
+      <c r="M9" s="4">
         <v>5.9</v>
       </c>
-      <c r="Q9">
+      <c r="N9" s="4">
         <v>14.8</v>
       </c>
-      <c r="R9">
+      <c r="O9" s="4">
         <v>21.1</v>
       </c>
-      <c r="S9">
-        <v>18</v>
-      </c>
-      <c r="T9">
+      <c r="P9" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>100.3</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="V9" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="W9" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="Y9" s="4">
         <v>1</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="2">
@@ -1268,69 +1426,84 @@
       <c r="E10" s="2">
         <v>0.59799999999999998</v>
       </c>
-      <c r="F10" s="2">
-        <v>112.4</v>
-      </c>
-      <c r="G10" s="2">
-        <v>108</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="4">
         <v>4.4000000000000057</v>
       </c>
-      <c r="I10">
-        <v>14.000000000000005</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="G10" s="5">
         <v>0.46500000000000002</v>
       </c>
+      <c r="H10" s="5">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="J10" s="6">
+        <v>44.5</v>
+      </c>
       <c r="K10" s="4">
-        <v>0.36499999999999999</v>
+        <v>26.3</v>
       </c>
       <c r="L10" s="4">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="M10" s="3">
-        <v>44.5</v>
-      </c>
-      <c r="N10">
-        <v>26.3</v>
-      </c>
-      <c r="O10">
         <v>8.6</v>
       </c>
-      <c r="P10">
+      <c r="M10" s="4">
         <v>5.3</v>
       </c>
-      <c r="Q10">
+      <c r="N10" s="4">
         <v>12.4</v>
       </c>
-      <c r="R10">
+      <c r="O10" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="S10">
-        <v>18</v>
-      </c>
-      <c r="T10">
+      <c r="P10" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>99.6</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.215</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="V10" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="W10" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="Y10" s="4">
         <v>1</v>
       </c>
-      <c r="U10">
+      <c r="Z10" s="4">
         <v>1</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
       <c r="C11" s="2">
@@ -1342,69 +1515,84 @@
       <c r="E11" s="2">
         <v>0.59799999999999998</v>
       </c>
-      <c r="F11" s="2">
-        <v>114.5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>111.1</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="4">
         <v>3.4000000000000057</v>
       </c>
-      <c r="I11">
-        <v>13.000000000000005</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="G11" s="5">
         <v>0.45399999999999996</v>
       </c>
+      <c r="H11" s="5">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="J11" s="6">
+        <v>48.1</v>
+      </c>
       <c r="K11" s="4">
-        <v>0.34799999999999998</v>
+        <v>23.4</v>
       </c>
       <c r="L11" s="4">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="M11" s="3">
-        <v>48.1</v>
-      </c>
-      <c r="N11">
-        <v>23.4</v>
-      </c>
-      <c r="O11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="P11">
+      <c r="M11" s="4">
         <v>5.2</v>
       </c>
-      <c r="Q11">
+      <c r="N11" s="4">
         <v>13.6</v>
       </c>
-      <c r="R11">
+      <c r="O11" s="4">
         <v>22.4</v>
       </c>
-      <c r="S11">
-        <v>18</v>
-      </c>
-      <c r="T11">
+      <c r="P11" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>102.8</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="V11" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="W11" s="7">
+        <v>26</v>
+      </c>
+      <c r="X11" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="Y11" s="4">
         <v>1</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
       <c r="C12" s="2">
@@ -1416,69 +1604,84 @@
       <c r="E12" s="2">
         <v>0.58499999999999996</v>
       </c>
-      <c r="F12" s="2">
-        <v>108</v>
-      </c>
-      <c r="G12" s="2">
-        <v>104.7</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="4">
         <v>3.2999999999999972</v>
       </c>
-      <c r="I12">
-        <v>12.899999999999997</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="G12" s="5">
         <v>0.47499999999999998</v>
       </c>
+      <c r="H12" s="5">
+        <v>0.374</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.752</v>
+      </c>
+      <c r="J12" s="6">
+        <v>43</v>
+      </c>
       <c r="K12" s="4">
-        <v>0.374</v>
+        <v>26</v>
       </c>
       <c r="L12" s="4">
-        <v>0.752</v>
-      </c>
-      <c r="M12" s="3">
-        <v>43</v>
-      </c>
-      <c r="N12">
-        <v>26</v>
-      </c>
-      <c r="O12">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P12">
+      <c r="M12" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q12">
+      <c r="N12" s="4">
         <v>13.3</v>
       </c>
-      <c r="R12">
+      <c r="O12" s="4">
         <v>19.399999999999999</v>
       </c>
-      <c r="S12">
-        <v>18</v>
-      </c>
-      <c r="T12">
+      <c r="P12" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>98.1</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="V12" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="W12" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0.182</v>
+      </c>
+      <c r="Y12" s="4">
         <v>1</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>7</v>
       </c>
       <c r="C13" s="2">
@@ -1490,69 +1693,84 @@
       <c r="E13" s="2">
         <v>0.58499999999999996</v>
       </c>
-      <c r="F13" s="2">
-        <v>111.7</v>
-      </c>
-      <c r="G13" s="2">
-        <v>110</v>
-      </c>
-      <c r="H13">
+      <c r="F13" s="4">
         <v>1.7000000000000028</v>
       </c>
-      <c r="I13">
-        <v>11.300000000000002</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="G13" s="5">
         <v>0.47799999999999998</v>
       </c>
+      <c r="H13" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.81900000000000006</v>
+      </c>
+      <c r="J13" s="6">
+        <v>44.7</v>
+      </c>
       <c r="K13" s="4">
-        <v>0.39200000000000002</v>
+        <v>24.5</v>
       </c>
       <c r="L13" s="4">
-        <v>0.81900000000000006</v>
-      </c>
-      <c r="M13" s="3">
-        <v>44.7</v>
-      </c>
-      <c r="N13">
-        <v>24.5</v>
-      </c>
-      <c r="O13">
         <v>6.1</v>
       </c>
-      <c r="P13">
+      <c r="M13" s="4">
         <v>4.7</v>
       </c>
-      <c r="Q13">
+      <c r="N13" s="4">
         <v>11.8</v>
       </c>
-      <c r="R13">
+      <c r="O13" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="S13">
-        <v>18</v>
-      </c>
-      <c r="T13">
+      <c r="P13" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>98.3</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="V13" s="7">
+        <v>11</v>
+      </c>
+      <c r="W13" s="7">
+        <v>21</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Y13" s="4">
         <v>1</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>8</v>
       </c>
       <c r="C14" s="2">
@@ -1564,69 +1782,84 @@
       <c r="E14" s="2">
         <v>0.58499999999999996</v>
       </c>
-      <c r="F14" s="2">
-        <v>115.1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>114.3</v>
-      </c>
-      <c r="H14">
+      <c r="F14" s="4">
         <v>0.79999999999999716</v>
       </c>
-      <c r="I14">
-        <v>10.399999999999997</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="G14" s="5">
         <v>0.47100000000000003</v>
       </c>
+      <c r="H14" s="5">
+        <v>0.38799999999999996</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="J14" s="6">
+        <v>45.5</v>
+      </c>
       <c r="K14" s="4">
-        <v>0.38799999999999996</v>
+        <v>24</v>
       </c>
       <c r="L14" s="4">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="M14" s="3">
-        <v>45.5</v>
-      </c>
-      <c r="N14">
-        <v>24</v>
-      </c>
-      <c r="O14">
         <v>6.8</v>
       </c>
-      <c r="P14">
+      <c r="M14" s="4">
         <v>4.7</v>
       </c>
-      <c r="Q14">
+      <c r="N14" s="4">
         <v>13.8</v>
       </c>
-      <c r="R14">
+      <c r="O14" s="4">
         <v>23.3</v>
       </c>
-      <c r="S14">
-        <v>18</v>
-      </c>
-      <c r="T14">
+      <c r="P14" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>101.7</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="V14" s="7">
+        <v>12.7</v>
+      </c>
+      <c r="W14" s="7">
+        <v>22</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Y14" s="4">
         <v>1</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>7</v>
       </c>
       <c r="C15" s="2">
@@ -1638,69 +1871,84 @@
       <c r="E15" s="2">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F15" s="2">
-        <v>107.3</v>
-      </c>
-      <c r="G15" s="2">
-        <v>106.6</v>
-      </c>
-      <c r="H15">
+      <c r="F15" s="4">
         <v>0.70000000000000284</v>
       </c>
-      <c r="I15">
-        <v>10.300000000000002</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="G15" s="5">
         <v>0.45399999999999996</v>
       </c>
+      <c r="H15" s="5">
+        <v>0.35600000000000004</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="J15" s="6">
+        <v>45.4</v>
+      </c>
       <c r="K15" s="4">
-        <v>0.35600000000000004</v>
+        <v>25.5</v>
       </c>
       <c r="L15" s="4">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="M15" s="3">
-        <v>45.4</v>
-      </c>
-      <c r="N15">
-        <v>25.5</v>
-      </c>
-      <c r="O15">
         <v>6.6</v>
       </c>
-      <c r="P15">
+      <c r="M15" s="4">
         <v>5.4</v>
       </c>
-      <c r="Q15">
+      <c r="N15" s="4">
         <v>12.6</v>
       </c>
-      <c r="R15">
+      <c r="O15" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="S15">
-        <v>18</v>
-      </c>
-      <c r="T15">
+      <c r="P15" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>98.1</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.216</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="V15" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="W15" s="7">
+        <v>22</v>
+      </c>
+      <c r="X15" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Y15" s="4">
         <v>1</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>6</v>
       </c>
       <c r="C16" s="2">
@@ -1712,69 +1960,84 @@
       <c r="E16" s="2">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F16" s="2">
-        <v>112.2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>112.3</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="4">
         <v>-9.9999999999994316E-2</v>
       </c>
-      <c r="I16">
-        <v>9.5000000000000053</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="G16" s="5">
         <v>0.44900000000000001</v>
       </c>
+      <c r="H16" s="5">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.745</v>
+      </c>
+      <c r="J16" s="6">
+        <v>46.6</v>
+      </c>
       <c r="K16" s="4">
-        <v>0.35299999999999998</v>
+        <v>23.8</v>
       </c>
       <c r="L16" s="4">
-        <v>0.745</v>
-      </c>
-      <c r="M16" s="3">
-        <v>46.6</v>
-      </c>
-      <c r="N16">
+        <v>6.6</v>
+      </c>
+      <c r="M16" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N16" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="O16" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="P16" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>100.8</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="V16" s="7">
+        <v>13</v>
+      </c>
+      <c r="W16" s="7">
         <v>23.8</v>
       </c>
-      <c r="O16">
-        <v>6.6</v>
-      </c>
-      <c r="P16">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q16">
-        <v>14.4</v>
-      </c>
-      <c r="R16">
-        <v>21.5</v>
-      </c>
-      <c r="S16">
-        <v>18</v>
-      </c>
-      <c r="T16">
+      <c r="X16" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="Y16" s="4">
         <v>1</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>8</v>
       </c>
       <c r="C17" s="2">
@@ -1786,69 +2049,84 @@
       <c r="E17" s="2">
         <v>0.5</v>
       </c>
-      <c r="F17" s="2">
-        <v>107</v>
-      </c>
-      <c r="G17" s="2">
-        <v>107.3</v>
-      </c>
-      <c r="H17">
+      <c r="F17" s="4">
         <v>-0.29999999999999716</v>
       </c>
-      <c r="I17">
-        <v>9.3000000000000025</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="G17" s="5">
         <v>0.44</v>
       </c>
+      <c r="H17" s="5">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.747</v>
+      </c>
+      <c r="J17" s="6">
+        <v>45</v>
+      </c>
       <c r="K17" s="4">
-        <v>0.34799999999999998</v>
+        <v>22.5</v>
       </c>
       <c r="L17" s="4">
-        <v>0.747</v>
-      </c>
-      <c r="M17" s="3">
-        <v>45</v>
-      </c>
-      <c r="N17">
-        <v>22.5</v>
-      </c>
-      <c r="O17">
         <v>6.9</v>
       </c>
-      <c r="P17">
+      <c r="M17" s="4">
         <v>4</v>
       </c>
-      <c r="Q17">
+      <c r="N17" s="4">
         <v>13</v>
       </c>
-      <c r="R17">
+      <c r="O17" s="4">
         <v>22.1</v>
       </c>
-      <c r="S17">
-        <v>18</v>
-      </c>
-      <c r="T17">
+      <c r="P17" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>97.4</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="V17" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="W17" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="Y17" s="4">
         <v>1</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>9</v>
       </c>
       <c r="C18" s="2">
@@ -1860,69 +2138,84 @@
       <c r="E18" s="2">
         <v>0.47599999999999998</v>
       </c>
-      <c r="F18" s="2">
-        <v>114.2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>115.3</v>
-      </c>
-      <c r="H18">
+      <c r="F18" s="4">
         <v>-1.0999999999999943</v>
       </c>
-      <c r="I18">
-        <v>8.5000000000000053</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="G18" s="5">
         <v>0.46399999999999997</v>
       </c>
+      <c r="H18" s="5">
+        <v>0.37799999999999995</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J18" s="6">
+        <v>45.4</v>
+      </c>
       <c r="K18" s="4">
-        <v>0.37799999999999995</v>
+        <v>25.4</v>
       </c>
       <c r="L18" s="4">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="M18" s="3">
-        <v>45.4</v>
-      </c>
-      <c r="N18">
-        <v>25.4</v>
-      </c>
-      <c r="O18">
         <v>8.3000000000000007</v>
       </c>
-      <c r="P18">
+      <c r="M18" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q18">
+      <c r="N18" s="4">
         <v>12.9</v>
       </c>
-      <c r="R18">
+      <c r="O18" s="4">
         <v>21.4</v>
       </c>
-      <c r="S18">
-        <v>18</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
+      <c r="P18" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>98.2</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.247</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="V18" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="W18" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>9</v>
       </c>
       <c r="C19" s="2">
@@ -1934,69 +2227,84 @@
       <c r="E19" s="2">
         <v>0.47599999999999998</v>
       </c>
-      <c r="F19" s="2">
-        <v>110.7</v>
-      </c>
-      <c r="G19" s="2">
-        <v>111.8</v>
-      </c>
-      <c r="H19">
+      <c r="F19" s="4">
         <v>-1.0999999999999943</v>
       </c>
-      <c r="I19">
-        <v>8.5000000000000053</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="G19" s="5">
         <v>0.44799999999999995</v>
       </c>
+      <c r="H19" s="5">
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="J19" s="6">
+        <v>43.8</v>
+      </c>
       <c r="K19" s="4">
-        <v>0.35100000000000003</v>
+        <v>23.2</v>
       </c>
       <c r="L19" s="4">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="M19" s="3">
-        <v>43.8</v>
-      </c>
-      <c r="N19">
-        <v>23.2</v>
-      </c>
-      <c r="O19">
         <v>7.2</v>
       </c>
-      <c r="P19">
+      <c r="M19" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q19">
+      <c r="N19" s="4">
         <v>11.7</v>
       </c>
-      <c r="R19">
+      <c r="O19" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="S19">
+      <c r="P19" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>103.1</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="V19" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="W19" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>10</v>
       </c>
       <c r="C20" s="2">
@@ -2008,69 +2316,84 @@
       <c r="E20" s="2">
         <v>0.47599999999999998</v>
       </c>
-      <c r="F20" s="2">
-        <v>105.7</v>
-      </c>
-      <c r="G20" s="2">
-        <v>105.9</v>
-      </c>
-      <c r="H20">
+      <c r="F20" s="4">
         <v>-0.20000000000000284</v>
       </c>
-      <c r="I20">
-        <v>9.3999999999999968</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="G20" s="5">
         <v>0.45</v>
       </c>
+      <c r="H20" s="5">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="J20" s="6">
+        <v>46.3</v>
+      </c>
       <c r="K20" s="4">
-        <v>0.34899999999999998</v>
+        <v>24.3</v>
       </c>
       <c r="L20" s="4">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="M20" s="3">
-        <v>46.3</v>
-      </c>
-      <c r="N20">
-        <v>24.3</v>
-      </c>
-      <c r="O20">
         <v>7.6</v>
       </c>
-      <c r="P20">
+      <c r="M20" s="4">
         <v>5.5</v>
       </c>
-      <c r="Q20">
+      <c r="N20" s="4">
         <v>14.1</v>
       </c>
-      <c r="R20">
+      <c r="O20" s="4">
         <v>20.9</v>
       </c>
-      <c r="S20">
-        <v>18</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
+      <c r="P20" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>98.7</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0.378</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="V20" s="7">
+        <v>10.9</v>
+      </c>
+      <c r="W20" s="7">
+        <v>21.7</v>
+      </c>
+      <c r="X20" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>10</v>
       </c>
       <c r="C21" s="2">
@@ -2082,69 +2405,84 @@
       <c r="E21" s="2">
         <v>0.45100000000000001</v>
       </c>
-      <c r="F21" s="2">
-        <v>111.8</v>
-      </c>
-      <c r="G21" s="2">
-        <v>113.5</v>
-      </c>
-      <c r="H21">
+      <c r="F21" s="4">
         <v>-1.7000000000000028</v>
       </c>
-      <c r="I21">
-        <v>7.8999999999999968</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="G21" s="5">
         <v>0.47</v>
       </c>
+      <c r="H21" s="5">
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.69900000000000007</v>
+      </c>
+      <c r="J21" s="6">
+        <v>46.6</v>
+      </c>
       <c r="K21" s="4">
-        <v>0.33299999999999996</v>
+        <v>25.6</v>
       </c>
       <c r="L21" s="4">
-        <v>0.69900000000000007</v>
-      </c>
-      <c r="M21" s="3">
-        <v>46.6</v>
-      </c>
-      <c r="N21">
-        <v>25.6</v>
-      </c>
-      <c r="O21">
         <v>7.5</v>
       </c>
-      <c r="P21">
+      <c r="M21" s="4">
         <v>5.4</v>
       </c>
-      <c r="Q21">
+      <c r="N21" s="4">
         <v>15.2</v>
       </c>
-      <c r="R21">
+      <c r="O21" s="4">
         <v>20.7</v>
       </c>
-      <c r="S21">
-        <v>18</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="P21" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>103.2</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="V21" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="W21" s="7">
+        <v>22.2</v>
+      </c>
+      <c r="X21" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>11</v>
       </c>
       <c r="C22" s="2">
@@ -2156,69 +2494,84 @@
       <c r="E22" s="2">
         <v>0.439</v>
       </c>
-      <c r="F22" s="2">
-        <v>112.5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>114</v>
-      </c>
-      <c r="H22">
+      <c r="F22" s="4">
         <v>-1.5</v>
       </c>
-      <c r="I22">
-        <v>8.1</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="G22" s="5">
         <v>0.45600000000000002</v>
       </c>
+      <c r="H22" s="5">
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="J22" s="6">
+        <v>44.8</v>
+      </c>
       <c r="K22" s="4">
-        <v>0.35100000000000003</v>
+        <v>24.6</v>
       </c>
       <c r="L22" s="4">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="M22" s="3">
-        <v>44.8</v>
-      </c>
-      <c r="N22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M22" s="4">
+        <v>5</v>
+      </c>
+      <c r="N22" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="O22" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="P22" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>100.2</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0.315</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="V22" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="W22" s="7">
         <v>24.6</v>
       </c>
-      <c r="O22">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <v>12.6</v>
-      </c>
-      <c r="R22">
-        <v>20.3</v>
-      </c>
-      <c r="S22">
-        <v>18</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
+      <c r="X22" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>12</v>
       </c>
       <c r="C23" s="2">
@@ -2230,69 +2583,84 @@
       <c r="E23" s="2">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F23" s="2">
-        <v>103.5</v>
-      </c>
-      <c r="G23" s="2">
-        <v>106.1</v>
-      </c>
-      <c r="H23">
+      <c r="F23" s="4">
         <v>-2.5999999999999943</v>
       </c>
-      <c r="I23">
-        <v>7.0000000000000053</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="G23" s="5">
         <v>0.45</v>
       </c>
+      <c r="H23" s="5">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="J23" s="6">
+        <v>41.8</v>
+      </c>
       <c r="K23" s="4">
-        <v>0.34200000000000003</v>
+        <v>23.9</v>
       </c>
       <c r="L23" s="4">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="M23" s="3">
-        <v>41.8</v>
-      </c>
-      <c r="N23">
-        <v>23.9</v>
-      </c>
-      <c r="O23">
         <v>8.3000000000000007</v>
       </c>
-      <c r="P23">
+      <c r="M23" s="4">
         <v>5.5</v>
       </c>
-      <c r="Q23">
+      <c r="N23" s="4">
         <v>13.2</v>
       </c>
-      <c r="R23">
+      <c r="O23" s="4">
         <v>22</v>
       </c>
-      <c r="S23">
-        <v>18</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
+      <c r="P23" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>103.3</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.254</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="V23" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="W23" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="X23" s="7">
+        <v>0.193</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>13</v>
       </c>
       <c r="C24" s="2">
@@ -2304,69 +2672,84 @@
       <c r="E24" s="2">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F24" s="2">
-        <v>115.4</v>
-      </c>
-      <c r="G24" s="2">
-        <v>116.8</v>
-      </c>
-      <c r="H24">
+      <c r="F24" s="4">
         <v>-1.3999999999999915</v>
       </c>
-      <c r="I24">
-        <v>8.2000000000000082</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="G24" s="5">
         <v>0.47299999999999998</v>
       </c>
+      <c r="H24" s="5">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.7609999999999999</v>
+      </c>
+      <c r="J24" s="6">
+        <v>47.3</v>
+      </c>
       <c r="K24" s="4">
-        <v>0.34399999999999997</v>
+        <v>27</v>
       </c>
       <c r="L24" s="4">
-        <v>0.7609999999999999</v>
-      </c>
-      <c r="M24" s="3">
-        <v>47.3</v>
-      </c>
-      <c r="N24">
-        <v>27</v>
-      </c>
-      <c r="O24">
         <v>7.4</v>
       </c>
-      <c r="P24">
+      <c r="M24" s="4">
         <v>5.4</v>
       </c>
-      <c r="Q24">
+      <c r="N24" s="4">
         <v>14.5</v>
       </c>
-      <c r="R24">
+      <c r="O24" s="4">
         <v>21.1</v>
       </c>
-      <c r="S24">
-        <v>18</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="P24" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>99</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="T24" s="7">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="U24" s="7">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="V24" s="7">
+        <v>12.7</v>
+      </c>
+      <c r="W24" s="7">
+        <v>22.7</v>
+      </c>
+      <c r="X24" s="7">
+        <v>0.216</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>14</v>
       </c>
       <c r="C25" s="2">
@@ -2378,69 +2761,84 @@
       <c r="E25" s="2">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F25" s="2">
-        <v>108.9</v>
-      </c>
-      <c r="G25" s="2">
-        <v>110.1</v>
-      </c>
-      <c r="H25">
+      <c r="F25" s="4">
         <v>-1.1999999999999886</v>
       </c>
-      <c r="I25">
-        <v>8.400000000000011</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="G25" s="5">
         <v>0.44700000000000001</v>
       </c>
+      <c r="H25" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J25" s="6">
+        <v>45.3</v>
+      </c>
       <c r="K25" s="4">
-        <v>0.34</v>
+        <v>23.4</v>
       </c>
       <c r="L25" s="4">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="M25" s="3">
-        <v>45.3</v>
-      </c>
-      <c r="N25">
-        <v>23.4</v>
-      </c>
-      <c r="O25">
         <v>6.5</v>
       </c>
-      <c r="P25">
+      <c r="M25" s="4">
         <v>4.3</v>
       </c>
-      <c r="Q25">
+      <c r="N25" s="4">
         <v>13.6</v>
       </c>
-      <c r="R25">
+      <c r="O25" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="S25">
-        <v>18</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="P25" s="7">
+        <v>27.7</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>96.6</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="V25" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="W25" s="7">
+        <v>20</v>
+      </c>
+      <c r="X25" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>11</v>
       </c>
       <c r="C26" s="2">
@@ -2452,69 +2850,84 @@
       <c r="E26" s="2">
         <v>0.39</v>
       </c>
-      <c r="F26" s="2">
-        <v>114</v>
-      </c>
-      <c r="G26" s="2">
-        <v>116.9</v>
-      </c>
-      <c r="H26">
+      <c r="F26" s="4">
         <v>-2.9000000000000057</v>
       </c>
-      <c r="I26">
-        <v>6.699999999999994</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="G26" s="5">
         <v>0.46799999999999997</v>
       </c>
+      <c r="H26" s="5">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="J26" s="6">
+        <v>42.4</v>
+      </c>
       <c r="K26" s="4">
-        <v>0.34100000000000003</v>
+        <v>26.3</v>
       </c>
       <c r="L26" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="M26" s="3">
-        <v>42.4</v>
-      </c>
-      <c r="N26">
-        <v>26.3</v>
-      </c>
-      <c r="O26">
         <v>8.3000000000000007</v>
       </c>
-      <c r="P26">
+      <c r="M26" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q26">
+      <c r="N26" s="4">
         <v>13.7</v>
       </c>
-      <c r="R26">
+      <c r="O26" s="4">
         <v>20.7</v>
       </c>
-      <c r="S26">
-        <v>18</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="P26" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>101.4</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="U26" s="7">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="V26" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="W26" s="7">
+        <v>21.3</v>
+      </c>
+      <c r="X26" s="7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>12</v>
       </c>
       <c r="C27" s="2">
@@ -2526,69 +2939,84 @@
       <c r="E27" s="2">
         <v>0.35399999999999998</v>
       </c>
-      <c r="F27" s="2">
-        <v>113.3</v>
-      </c>
-      <c r="G27" s="2">
-        <v>119.4</v>
-      </c>
-      <c r="H27">
+      <c r="F27" s="4">
         <v>-6.1000000000000085</v>
       </c>
-      <c r="I27">
-        <v>3.4999999999999911</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="G27" s="5">
         <v>0.45100000000000001</v>
       </c>
+      <c r="H27" s="5">
+        <v>0.35200000000000004</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.752</v>
+      </c>
+      <c r="J27" s="6">
+        <v>46.1</v>
+      </c>
       <c r="K27" s="4">
-        <v>0.35200000000000004</v>
+        <v>25.8</v>
       </c>
       <c r="L27" s="4">
-        <v>0.752</v>
-      </c>
-      <c r="M27" s="3">
-        <v>46.1</v>
-      </c>
-      <c r="N27">
-        <v>25.8</v>
-      </c>
-      <c r="O27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P27">
+      <c r="M27" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q27">
+      <c r="N27" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="R27">
+      <c r="O27" s="4">
         <v>23.6</v>
       </c>
-      <c r="S27">
-        <v>18</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
+      <c r="P27" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>103.9</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0.255</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="U27" s="7">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="V27" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="W27" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="X27" s="7">
+        <v>0.192</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>13</v>
       </c>
       <c r="C28" s="2">
@@ -2600,69 +3028,84 @@
       <c r="E28" s="2">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F28" s="2">
-        <v>104.9</v>
-      </c>
-      <c r="G28" s="2">
-        <v>113.4</v>
-      </c>
-      <c r="H28">
+      <c r="F28" s="4">
         <v>-8.5</v>
       </c>
-      <c r="I28">
-        <v>1.0999999999999996</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="G28" s="5">
         <v>0.45299999999999996</v>
       </c>
+      <c r="H28" s="5">
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.78299999999999992</v>
+      </c>
+      <c r="J28" s="6">
+        <v>42.9</v>
+      </c>
       <c r="K28" s="4">
-        <v>0.35100000000000003</v>
+        <v>21.9</v>
       </c>
       <c r="L28" s="4">
-        <v>0.78299999999999992</v>
-      </c>
-      <c r="M28" s="3">
-        <v>42.9</v>
-      </c>
-      <c r="N28">
-        <v>21.9</v>
-      </c>
-      <c r="O28">
         <v>7.4</v>
       </c>
-      <c r="P28">
+      <c r="M28" s="4">
         <v>4.3</v>
       </c>
-      <c r="Q28">
+      <c r="N28" s="4">
         <v>13.5</v>
       </c>
-      <c r="R28">
+      <c r="O28" s="4">
         <v>20.3</v>
       </c>
-      <c r="S28">
-        <v>18</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="P28" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>99</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="U28" s="7">
+        <v>0.505</v>
+      </c>
+      <c r="V28" s="7">
+        <v>12.7</v>
+      </c>
+      <c r="W28" s="7">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="X28" s="7">
+        <v>0.184</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>14</v>
       </c>
       <c r="C29" s="2">
@@ -2674,69 +3117,84 @@
       <c r="E29" s="2">
         <v>0.23200000000000001</v>
       </c>
-      <c r="F29" s="2">
-        <v>104.5</v>
-      </c>
-      <c r="G29" s="2">
-        <v>114.1</v>
-      </c>
-      <c r="H29">
+      <c r="F29" s="4">
         <v>-9.5999999999999943</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="G29" s="5">
         <v>0.44400000000000001</v>
       </c>
+      <c r="H29" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="J29" s="6">
+        <v>42.7</v>
+      </c>
       <c r="K29" s="4">
-        <v>0.35499999999999998</v>
+        <v>20.7</v>
       </c>
       <c r="L29" s="4">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="M29" s="3">
-        <v>42.7</v>
-      </c>
-      <c r="N29">
-        <v>20.7</v>
-      </c>
-      <c r="O29">
         <v>6.5</v>
       </c>
-      <c r="P29">
+      <c r="M29" s="4">
         <v>2.4</v>
       </c>
-      <c r="Q29">
+      <c r="N29" s="4">
         <v>12.6</v>
       </c>
-      <c r="R29">
+      <c r="O29" s="4">
         <v>20</v>
       </c>
-      <c r="S29">
-        <v>18</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
+      <c r="P29" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>100.5</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="S29" s="7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="U29" s="7">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="V29" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="W29" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="X29" s="7">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>15</v>
       </c>
       <c r="C30" s="2">
@@ -2748,69 +3206,84 @@
       <c r="E30" s="2">
         <v>0.23200000000000001</v>
       </c>
-      <c r="F30" s="2">
-        <v>107.5</v>
-      </c>
-      <c r="G30" s="2">
-        <v>116.8</v>
-      </c>
-      <c r="H30">
+      <c r="F30" s="4">
         <v>-9.2999999999999972</v>
       </c>
-      <c r="I30">
-        <v>0.30000000000000249</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="G30" s="5">
         <v>0.45899999999999996</v>
       </c>
+      <c r="H30" s="5">
+        <v>0.32899999999999996</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="J30" s="6">
+        <v>40.4</v>
+      </c>
       <c r="K30" s="4">
-        <v>0.32899999999999996</v>
+        <v>23.9</v>
       </c>
       <c r="L30" s="4">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="M30" s="3">
-        <v>40.4</v>
-      </c>
-      <c r="N30">
-        <v>23.9</v>
-      </c>
-      <c r="O30">
         <v>9</v>
       </c>
-      <c r="P30">
+      <c r="M30" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q30">
+      <c r="N30" s="4">
         <v>15.2</v>
       </c>
-      <c r="R30">
+      <c r="O30" s="4">
         <v>23.6</v>
       </c>
-      <c r="S30">
-        <v>18</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
+      <c r="P30" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>96.6</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="U30" s="7">
+        <v>0.503</v>
+      </c>
+      <c r="V30" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="W30" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="X30" s="7">
+        <v>0.187</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>15</v>
       </c>
       <c r="C31" s="2">
@@ -2822,61 +3295,76 @@
       <c r="E31" s="2">
         <v>0.20699999999999999</v>
       </c>
-      <c r="F31" s="2">
-        <v>104.6</v>
-      </c>
-      <c r="G31" s="2">
-        <v>113.8</v>
-      </c>
-      <c r="H31">
+      <c r="F31" s="4">
         <v>-9.2000000000000028</v>
       </c>
-      <c r="I31">
-        <v>0.3999999999999968</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="G31" s="5">
         <v>0.433</v>
       </c>
+      <c r="H31" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="J31" s="6">
+        <v>44.7</v>
+      </c>
       <c r="K31" s="4">
-        <v>0.34</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L31" s="4">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="M31" s="3">
-        <v>44.7</v>
-      </c>
-      <c r="N31">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="O31">
         <v>6.8</v>
       </c>
-      <c r="P31">
+      <c r="M31" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q31">
+      <c r="N31" s="4">
         <v>13.4</v>
       </c>
-      <c r="R31">
+      <c r="O31" s="4">
         <v>20.9</v>
       </c>
-      <c r="S31">
-        <v>18</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
+      <c r="P31" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>99.6</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="S31" s="7">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="U31" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="V31" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="W31" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="X31" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="4">
         <v>0</v>
       </c>
     </row>
